--- a/Document/02. Design/02. DetailDesign/Task 1/Detail_Design_Confirm_Import_UV.xlsx
+++ b/Document/02. Design/02. DetailDesign/Task 1/Detail_Design_Confirm_Import_UV.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ToanHH\Candidate-Management\Document\02. Design\02. DetailDesign\Task 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToanHH\Candidate-Management\Document\02. Design\02. DetailDesign\Task 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF274AD6-96D7-4A54-A986-F41B70FC38A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35506223-07FD-4E65-9FCD-F8744A065BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BD9EEB88-A6EF-4B9E-8450-A57955C100E2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{BD9EEB88-A6EF-4B9E-8450-A57955C100E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Confirm Import UV Screen" sheetId="1" r:id="rId1"/>
     <sheet name="Detail Design" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,12 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -460,18 +457,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -480,22 +475,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -616,13 +613,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>17369</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>453505</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>103824</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -661,20 +658,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>15688</xdr:rowOff>
+      <xdr:rowOff>17929</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>867961</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>157043</xdr:rowOff>
+      <xdr:colOff>1484946</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>141413</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E8EEE49-71D2-2B58-5EA9-7E0537166A68}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89418CF7-70D6-9CCC-FEC3-8FB97EB52303}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -690,8 +687,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="12409394"/>
-          <a:ext cx="8476755" cy="5172797"/>
+          <a:off x="0" y="11860305"/>
+          <a:ext cx="9221487" cy="5591955"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1002,28 +999,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F0CCFFB-6E4D-44F2-9E4D-0800DB09BA6F}">
   <dimension ref="A27:O37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
     <col min="13" max="13" width="20" customWidth="1"/>
-    <col min="14" max="14" width="22.42578125" customWidth="1"/>
+    <col min="14" max="14" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>17</v>
       </c>
@@ -1070,7 +1067,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>72</v>
       </c>
@@ -1099,7 +1096,7 @@
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>73</v>
       </c>
@@ -1128,7 +1125,7 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>74</v>
       </c>
@@ -1159,7 +1156,7 @@
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>75</v>
       </c>
@@ -1188,7 +1185,7 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>76</v>
       </c>
@@ -1217,7 +1214,7 @@
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>77</v>
       </c>
@@ -1246,7 +1243,7 @@
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>78</v>
       </c>
@@ -1275,7 +1272,7 @@
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>79</v>
       </c>
@@ -1304,7 +1301,7 @@
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>80</v>
       </c>
@@ -1335,7 +1332,7 @@
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -1376,39 +1373,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{675903DE-6026-4B21-9669-6C3D098AF795}">
-  <dimension ref="A1:O95"/>
+  <dimension ref="A1:O96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E95" sqref="E95"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L68" sqref="L68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="35.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="27.5703125" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" customWidth="1"/>
-    <col min="14" max="14" width="20.28515625" customWidth="1"/>
-    <col min="15" max="15" width="35.85546875" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="27.5546875" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" customWidth="1"/>
+    <col min="12" max="12" width="20.6640625" customWidth="1"/>
+    <col min="13" max="13" width="15.44140625" customWidth="1"/>
+    <col min="14" max="14" width="20.33203125" customWidth="1"/>
+    <col min="15" max="15" width="35.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
       <c r="E1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
       <c r="J1" s="1" t="s">
         <v>35</v>
       </c>
@@ -1422,261 +1419,261 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="15"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C4" s="13"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>3</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>4</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="15" t="s">
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B11" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="15"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C11" s="13"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="15" t="s">
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B16" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="15"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C16" s="13"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="12" t="s">
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="12"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C21" s="21"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B22" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="13"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E22" s="22"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B23" s="1">
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="14"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-    </row>
-    <row r="30" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+    </row>
+    <row r="30" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-    </row>
-    <row r="31" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-    </row>
-    <row r="64" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A64" s="21" t="s">
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+    </row>
+    <row r="31" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+    </row>
+    <row r="64" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A64" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
-    </row>
-    <row r="75" spans="11:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="K75" s="19" t="s">
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+    </row>
+    <row r="75" spans="11:15" ht="21" x14ac:dyDescent="0.4">
+      <c r="K75" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="L75" s="19"/>
-      <c r="M75" s="19"/>
-    </row>
-    <row r="77" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="L75" s="11"/>
+      <c r="M75" s="11"/>
+    </row>
+    <row r="77" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K77" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="78" spans="11:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K78" s="8" t="s">
         <v>58</v>
       </c>
@@ -1693,7 +1690,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="79" spans="11:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K79" s="1">
         <v>1</v>
       </c>
@@ -1708,7 +1705,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="80" spans="11:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K80" s="1">
         <v>2</v>
       </c>
@@ -1717,12 +1714,12 @@
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K83" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K84" s="8" t="s">
         <v>58</v>
       </c>
@@ -1739,7 +1736,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K85" s="1">
         <v>1</v>
       </c>
@@ -1756,7 +1753,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K86" s="1">
         <v>2</v>
       </c>
@@ -1773,29 +1770,14 @@
         <v>71</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A95" s="21" t="s">
+    <row r="96" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A96" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B95" s="22"/>
+      <c r="B96" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="K75:M75"/>
-    <mergeCell ref="A30:C31"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D12:J12"/>
     <mergeCell ref="D13:J13"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D17:J17"/>
@@ -1809,6 +1791,21 @@
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="K75:M75"/>
+    <mergeCell ref="A30:C31"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="B16:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
